--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_T45_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_T45_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.002099636470939166</v>
+        <v>-0.03027116410798613</v>
       </c>
       <c r="C2">
-        <v>0.1232588647135871</v>
+        <v>0.3513215654800215</v>
       </c>
       <c r="D2">
-        <v>0.03139795277152564</v>
+        <v>0.1490724330844395</v>
       </c>
       <c r="E2">
-        <v>0.1771946747832046</v>
+        <v>0.3860989938920322</v>
       </c>
       <c r="F2">
-        <v>0.1834010368550752</v>
+        <v>0.3994404986893751</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03027116410798613</v>
+        <v>-0.04905665594513928</v>
       </c>
       <c r="C3">
-        <v>0.3513215654800215</v>
+        <v>0.2345188573562595</v>
       </c>
       <c r="D3">
-        <v>0.1490724330844395</v>
+        <v>0.07249634168634074</v>
       </c>
       <c r="E3">
-        <v>0.3860989938920322</v>
+        <v>0.269251446953105</v>
       </c>
       <c r="F3">
-        <v>0.3994404986893751</v>
+        <v>0.275555079267236</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.04905665594513928</v>
+        <v>-0.03952956703121076</v>
       </c>
       <c r="C4">
-        <v>0.2345188573562595</v>
+        <v>0.2973229505318943</v>
       </c>
       <c r="D4">
-        <v>0.07249634168634074</v>
+        <v>0.1197329025896884</v>
       </c>
       <c r="E4">
-        <v>0.269251446953105</v>
+        <v>0.3460244248455424</v>
       </c>
       <c r="F4">
-        <v>0.275555079267236</v>
+        <v>0.359044665623571</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.03952956703121076</v>
+        <v>-0.02815451101896177</v>
       </c>
       <c r="C5">
-        <v>0.2973229505318943</v>
+        <v>0.1902470767633485</v>
       </c>
       <c r="D5">
-        <v>0.1197329025896884</v>
+        <v>0.06574748725752844</v>
       </c>
       <c r="E5">
-        <v>0.3460244248455424</v>
+        <v>0.2564127283453932</v>
       </c>
       <c r="F5">
-        <v>0.359044665623571</v>
+        <v>0.267301873999216</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02815451101896177</v>
+        <v>-0.04837455801976177</v>
       </c>
       <c r="C6">
-        <v>0.1902470767633485</v>
+        <v>0.3441411292542904</v>
       </c>
       <c r="D6">
-        <v>0.06574748725752844</v>
+        <v>0.1571651242787223</v>
       </c>
       <c r="E6">
-        <v>0.2564127283453932</v>
+        <v>0.3964405684068197</v>
       </c>
       <c r="F6">
-        <v>0.267301873999216</v>
+        <v>0.4147623501812882</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04837455801976177</v>
+        <v>-0.0723091577469028</v>
       </c>
       <c r="C7">
-        <v>0.3441411292542904</v>
+        <v>0.3260979148759209</v>
       </c>
       <c r="D7">
-        <v>0.1571651242787223</v>
+        <v>0.116774734798478</v>
       </c>
       <c r="E7">
-        <v>0.3964405684068197</v>
+        <v>0.3417231844614556</v>
       </c>
       <c r="F7">
-        <v>0.4147623501812882</v>
+        <v>0.3542448102195189</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0723091577469028</v>
+        <v>-0.04314485034007026</v>
       </c>
       <c r="C8">
-        <v>0.3260979148759209</v>
+        <v>0.2928395475983343</v>
       </c>
       <c r="D8">
-        <v>0.116774734798478</v>
+        <v>0.1273075999664306</v>
       </c>
       <c r="E8">
-        <v>0.3417231844614556</v>
+        <v>0.3568019057774644</v>
       </c>
       <c r="F8">
-        <v>0.3542448102195189</v>
+        <v>0.3786383451347186</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04314485034007026</v>
+        <v>-0.041375596389022</v>
       </c>
       <c r="C9">
-        <v>0.2928395475983343</v>
+        <v>0.1988059984120452</v>
       </c>
       <c r="D9">
-        <v>0.1273075999664306</v>
+        <v>0.06577567631596841</v>
       </c>
       <c r="E9">
-        <v>0.3568019057774644</v>
+        <v>0.2564676905888311</v>
       </c>
       <c r="F9">
-        <v>0.3786383451347186</v>
+        <v>0.2733880497193041</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.041375596389022</v>
+        <v>-0.09920882285969852</v>
       </c>
       <c r="C10">
-        <v>0.1988059984120452</v>
+        <v>0.4033304192040505</v>
       </c>
       <c r="D10">
-        <v>0.06577567631596841</v>
+        <v>0.2097558308966996</v>
       </c>
       <c r="E10">
-        <v>0.2564676905888311</v>
+        <v>0.4579910816781257</v>
       </c>
       <c r="F10">
-        <v>0.2733880497193041</v>
+        <v>0.4897919236126613</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.09920882285969852</v>
+        <v>-0.009286038702706412</v>
       </c>
       <c r="C11">
-        <v>0.4033304192040505</v>
+        <v>0.2427162589609241</v>
       </c>
       <c r="D11">
-        <v>0.2097558308966996</v>
+        <v>0.07139578606315643</v>
       </c>
       <c r="E11">
-        <v>0.4579910816781257</v>
+        <v>0.2671998990702587</v>
       </c>
       <c r="F11">
-        <v>0.4897919236126613</v>
+        <v>0.2985581089762265</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_T45_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_T45_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.03027116410798613</v>
+        <v>0.002099636470939166</v>
       </c>
       <c r="C2">
-        <v>0.3513215654800215</v>
+        <v>0.1232588647135871</v>
       </c>
       <c r="D2">
-        <v>0.1490724330844395</v>
+        <v>0.03139795277152564</v>
       </c>
       <c r="E2">
-        <v>0.3860989938920322</v>
+        <v>0.1771946747832046</v>
       </c>
       <c r="F2">
-        <v>0.3994404986893751</v>
+        <v>0.1834010368550752</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04905665594513928</v>
+        <v>-0.03027116410798613</v>
       </c>
       <c r="C3">
-        <v>0.2345188573562595</v>
+        <v>0.3513215654800215</v>
       </c>
       <c r="D3">
-        <v>0.07249634168634074</v>
+        <v>0.1490724330844395</v>
       </c>
       <c r="E3">
-        <v>0.269251446953105</v>
+        <v>0.3860989938920322</v>
       </c>
       <c r="F3">
-        <v>0.275555079267236</v>
+        <v>0.3994404986893751</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03952956703121076</v>
+        <v>-0.04905665594513928</v>
       </c>
       <c r="C4">
-        <v>0.2973229505318943</v>
+        <v>0.2345188573562595</v>
       </c>
       <c r="D4">
-        <v>0.1197329025896884</v>
+        <v>0.07249634168634074</v>
       </c>
       <c r="E4">
-        <v>0.3460244248455424</v>
+        <v>0.269251446953105</v>
       </c>
       <c r="F4">
-        <v>0.359044665623571</v>
+        <v>0.275555079267236</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.02815451101896177</v>
+        <v>-0.03952956703121076</v>
       </c>
       <c r="C5">
-        <v>0.1902470767633485</v>
+        <v>0.2973229505318943</v>
       </c>
       <c r="D5">
-        <v>0.06574748725752844</v>
+        <v>0.1197329025896884</v>
       </c>
       <c r="E5">
-        <v>0.2564127283453932</v>
+        <v>0.3460244248455424</v>
       </c>
       <c r="F5">
-        <v>0.267301873999216</v>
+        <v>0.359044665623571</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04837455801976177</v>
+        <v>-0.02815451101896177</v>
       </c>
       <c r="C6">
-        <v>0.3441411292542904</v>
+        <v>0.1902470767633485</v>
       </c>
       <c r="D6">
-        <v>0.1571651242787223</v>
+        <v>0.06574748725752844</v>
       </c>
       <c r="E6">
-        <v>0.3964405684068197</v>
+        <v>0.2564127283453932</v>
       </c>
       <c r="F6">
-        <v>0.4147623501812882</v>
+        <v>0.267301873999216</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0723091577469028</v>
+        <v>-0.04837455801976177</v>
       </c>
       <c r="C7">
-        <v>0.3260979148759209</v>
+        <v>0.3441411292542904</v>
       </c>
       <c r="D7">
-        <v>0.116774734798478</v>
+        <v>0.1571651242787223</v>
       </c>
       <c r="E7">
-        <v>0.3417231844614556</v>
+        <v>0.3964405684068197</v>
       </c>
       <c r="F7">
-        <v>0.3542448102195189</v>
+        <v>0.4147623501812882</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04314485034007026</v>
+        <v>-0.0723091577469028</v>
       </c>
       <c r="C8">
-        <v>0.2928395475983343</v>
+        <v>0.3260979148759209</v>
       </c>
       <c r="D8">
-        <v>0.1273075999664306</v>
+        <v>0.116774734798478</v>
       </c>
       <c r="E8">
-        <v>0.3568019057774644</v>
+        <v>0.3417231844614556</v>
       </c>
       <c r="F8">
-        <v>0.3786383451347186</v>
+        <v>0.3542448102195189</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.041375596389022</v>
+        <v>-0.04314485034007026</v>
       </c>
       <c r="C9">
-        <v>0.1988059984120452</v>
+        <v>0.2928395475983343</v>
       </c>
       <c r="D9">
-        <v>0.06577567631596841</v>
+        <v>0.1273075999664306</v>
       </c>
       <c r="E9">
-        <v>0.2564676905888311</v>
+        <v>0.3568019057774644</v>
       </c>
       <c r="F9">
-        <v>0.2733880497193041</v>
+        <v>0.3786383451347186</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.09920882285969852</v>
+        <v>-0.041375596389022</v>
       </c>
       <c r="C10">
-        <v>0.4033304192040505</v>
+        <v>0.1988059984120452</v>
       </c>
       <c r="D10">
-        <v>0.2097558308966996</v>
+        <v>0.06577567631596841</v>
       </c>
       <c r="E10">
-        <v>0.4579910816781257</v>
+        <v>0.2564676905888311</v>
       </c>
       <c r="F10">
-        <v>0.4897919236126613</v>
+        <v>0.2733880497193041</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.009286038702706412</v>
+        <v>-0.09920882285969852</v>
       </c>
       <c r="C11">
-        <v>0.2427162589609241</v>
+        <v>0.4033304192040505</v>
       </c>
       <c r="D11">
-        <v>0.07139578606315643</v>
+        <v>0.2097558308966996</v>
       </c>
       <c r="E11">
-        <v>0.2671998990702587</v>
+        <v>0.4579910816781257</v>
       </c>
       <c r="F11">
-        <v>0.2985581089762265</v>
+        <v>0.4897919236126613</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
